--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,127 +40,130 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,37 +590,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9090909090909091</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -637,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,31 +658,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+      <c r="M4">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L4">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>23</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7012987012987013</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C6">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="D6">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4166666666666667</v>
+        <v>0.2267441860465116</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>399</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,49 +840,49 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3571428571428572</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>152</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L8">
+        <v>48</v>
+      </c>
+      <c r="M8">
+        <v>48</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>10</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>18</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L8">
-        <v>43</v>
-      </c>
-      <c r="M8">
-        <v>43</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3476394849785407</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="C9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,195 +908,123 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L9">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>29</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.78125</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>0.775</v>
+      </c>
+      <c r="L11">
+        <v>93</v>
+      </c>
+      <c r="M11">
+        <v>93</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K9">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L9">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>47</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.25</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L10">
-        <v>45</v>
-      </c>
-      <c r="M10">
-        <v>45</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C11">
+      <c r="K12">
+        <v>0.7682926829268293</v>
+      </c>
+      <c r="L12">
+        <v>63</v>
+      </c>
+      <c r="M12">
+        <v>63</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>19</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>67</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.8125</v>
-      </c>
-      <c r="L11">
-        <v>13</v>
-      </c>
-      <c r="M11">
-        <v>13</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>98</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.8</v>
-      </c>
-      <c r="L12">
-        <v>20</v>
-      </c>
-      <c r="M12">
-        <v>20</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1105,21 +1036,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7647058823529411</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1131,21 +1062,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7586206896551724</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1157,21 +1088,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1183,21 +1114,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.717948717948718</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1209,21 +1140,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6986301369863014</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1235,21 +1166,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6551724137931034</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1261,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6470588235294118</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1287,21 +1218,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6470588235294118</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1313,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1339,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6060606060606061</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1365,21 +1296,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5248041775456919</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1391,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5909090909090909</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1417,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5586854460093896</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L26">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1443,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5333333333333333</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1469,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5208333333333334</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L28">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1495,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1521,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4857142857142857</v>
+        <v>0.3640167364016736</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1547,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4782608695652174</v>
+        <v>0.359375</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1573,33 +1504,137 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L32">
+        <v>28</v>
+      </c>
+      <c r="M32">
+        <v>28</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33">
+        <v>0.3538461538461539</v>
+      </c>
+      <c r="L33">
+        <v>23</v>
+      </c>
+      <c r="M33">
+        <v>23</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34">
+        <v>0.02348993288590604</v>
+      </c>
+      <c r="L34">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <v>21</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K32">
-        <v>0.4573643410852713</v>
-      </c>
-      <c r="L32">
-        <v>59</v>
-      </c>
-      <c r="M32">
-        <v>59</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>70</v>
+      <c r="K35">
+        <v>0.01403180542563143</v>
+      </c>
+      <c r="L35">
+        <v>30</v>
+      </c>
+      <c r="M35">
+        <v>35</v>
+      </c>
+      <c r="N35">
+        <v>0.86</v>
+      </c>
+      <c r="O35">
+        <v>0.14</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36">
+        <v>0.00837898807605543</v>
+      </c>
+      <c r="L36">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36">
+        <v>0.87</v>
+      </c>
+      <c r="O36">
+        <v>0.13</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>3077</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,18 @@
     <t>crude</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -79,82 +76,79 @@
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>store</t>
@@ -521,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7058823529411765</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>0.9615384615384616</v>
@@ -640,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6551724137931034</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>0.9491525423728814</v>
@@ -690,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6388888888888888</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5958904109589042</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C6">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2267441860465116</v>
+        <v>0.2073643410852713</v>
       </c>
       <c r="C7">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D7">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0.8482142857142857</v>
@@ -840,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1957671957671958</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,69 +852,45 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L8">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>29</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L8">
-        <v>48</v>
-      </c>
-      <c r="M8">
-        <v>48</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1476510067114094</v>
-      </c>
-      <c r="C9">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>127</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,21 +902,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.78125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -958,21 +928,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.775</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -984,21 +954,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7682926829268293</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1010,21 +980,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7450980392156863</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1036,21 +1006,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6971830985915493</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1062,21 +1032,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6886792452830188</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L15">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M15">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1088,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6875</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1114,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6595744680851063</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1140,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6349206349206349</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1166,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6176470588235294</v>
+        <v>0.6875</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1192,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6063829787234043</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1218,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5833333333333334</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1244,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5833333333333334</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1270,12 +1240,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>0.5600000000000001</v>
@@ -1301,16 +1271,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5248041775456919</v>
+        <v>0.5221932114882507</v>
       </c>
       <c r="L24">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M24">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1322,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.461764705882353</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L25">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M25">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1348,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4444444444444444</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1374,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4383561643835616</v>
+        <v>0.4474576271186441</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1400,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4382022471910113</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1426,47 +1396,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29">
+        <v>0.4246575342465753</v>
+      </c>
+      <c r="L29">
+        <v>31</v>
+      </c>
+      <c r="M29">
+        <v>31</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>42</v>
-      </c>
-      <c r="K29">
-        <v>0.423728813559322</v>
-      </c>
-      <c r="L29">
-        <v>125</v>
-      </c>
-      <c r="M29">
-        <v>125</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>170</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.3640167364016736</v>
+        <v>0.393305439330544</v>
       </c>
       <c r="L30">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M30">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1478,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.359375</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1504,41 +1474,41 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>0.296875</v>
+      </c>
+      <c r="L32">
+        <v>19</v>
+      </c>
+      <c r="M32">
+        <v>19</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>45</v>
-      </c>
-      <c r="K32">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="L32">
-        <v>28</v>
-      </c>
-      <c r="M32">
-        <v>28</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>50</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.3538461538461539</v>
+        <v>0.02572706935123042</v>
       </c>
       <c r="L33">
         <v>23</v>
@@ -1556,85 +1526,59 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>871</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.02348993288590604</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="L34">
         <v>21</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>873</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.01403180542563143</v>
+        <v>0.009342783505154639</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N35">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="O35">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36">
-        <v>0.00837898807605543</v>
-      </c>
-      <c r="L36">
-        <v>26</v>
-      </c>
-      <c r="M36">
-        <v>30</v>
-      </c>
-      <c r="N36">
-        <v>0.87</v>
-      </c>
-      <c r="O36">
-        <v>0.13</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>3077</v>
+        <v>3075</v>
       </c>
     </row>
   </sheetData>
